--- a/src/assets/DATA/21-01-2022/BL/2.xlsx
+++ b/src/assets/DATA/21-01-2022/BL/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DATA\21-01-2022\BL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861BB56A-6497-4954-AB76-AB01BE0B5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9FE13F-46C5-4B86-A917-A22BE9418082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Total TTC</t>
   </si>
   <si>
-    <t>societé A</t>
-  </si>
-  <si>
     <t>ali</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>valide</t>
+  </si>
+  <si>
+    <t>societé B</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -537,81 +537,81 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>98989898</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1">
         <v>44503</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
       <c r="P2">
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>10</v>
